--- a/config_Release/sys_qhb_config.xlsx
+++ b/config_Release/sys_qhb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,25 +497,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1579303800</v>
+        <v>1612828800</v>
       </c>
       <c r="C2" s="3">
-        <v>1579449540</v>
+        <v>1613404799</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1579563000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1580140740</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="H3" s="6"/>
